--- a/competencia_03/Experimentos_colaborativos/Resultados/Bayesianas.xlsx
+++ b/competencia_03/Experimentos_colaborativos/Resultados/Bayesianas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mabil\Documents\DATA_MINING\DMEyF\dmeyf2023\competencia_03\Experimentos_colaborativos\LR1_semillerio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mabil\Documents\DATA_MINING\DMEyF\dmeyf2023\competencia_03\Experimentos_colaborativos\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3036,11 +3036,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="131425776"/>
-        <c:axId val="131428912"/>
+        <c:axId val="445994376"/>
+        <c:axId val="133587368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="131425776"/>
+        <c:axId val="445994376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3083,7 +3083,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131428912"/>
+        <c:crossAx val="133587368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3091,7 +3091,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131428912"/>
+        <c:axId val="133587368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="80000"/>
@@ -3129,7 +3129,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131425776"/>
+        <c:crossAx val="445994376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3805,16 +3805,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>393699</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:colOff>69849</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11295,7 +11295,7 @@
     <sheetView topLeftCell="R1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="AL8" sqref="AL8"/>
+      <selection pane="bottomLeft" activeCell="AJ1" sqref="AJ1:AJ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11304,7 +11304,7 @@
     <col min="18" max="18" width="10.90625" style="2"/>
     <col min="19" max="29" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="30" max="33" width="10.90625" style="2"/>
-    <col min="34" max="34" width="18.08984375" style="2" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="18.08984375" style="2" customWidth="1"/>
     <col min="35" max="35" width="10.90625" style="2"/>
     <col min="36" max="36" width="13.26953125" style="15" bestFit="1" customWidth="1"/>
     <col min="37" max="16384" width="10.90625" style="2"/>
@@ -11527,7 +11527,7 @@
         <v>1</v>
       </c>
       <c r="AJ2" s="15">
-        <f>AH2/10000000</f>
+        <f t="shared" ref="AJ2:AJ33" si="0">AH2/10000000</f>
         <v>72822395.8020989</v>
       </c>
     </row>
@@ -11638,7 +11638,7 @@
         <v>2</v>
       </c>
       <c r="AJ3" s="15">
-        <f>AH3/10000000</f>
+        <f t="shared" si="0"/>
         <v>60973326.8365817</v>
       </c>
     </row>
@@ -11749,7 +11749,7 @@
         <v>3</v>
       </c>
       <c r="AJ4" s="15">
-        <f>AH4/10000000</f>
+        <f t="shared" si="0"/>
         <v>86211195.402298898</v>
       </c>
     </row>
@@ -11860,7 +11860,7 @@
         <v>4</v>
       </c>
       <c r="AJ5" s="15">
-        <f>AH5/10000000</f>
+        <f t="shared" si="0"/>
         <v>76193642.678660706</v>
       </c>
     </row>
@@ -11971,7 +11971,7 @@
         <v>5</v>
       </c>
       <c r="AJ6" s="24">
-        <f>AH6/10000000</f>
+        <f t="shared" si="0"/>
         <v>79327634.682658702</v>
       </c>
     </row>
@@ -12082,7 +12082,7 @@
         <v>6</v>
       </c>
       <c r="AJ7" s="15">
-        <f>AH7/10000000</f>
+        <f t="shared" si="0"/>
         <v>78290861.569215402</v>
       </c>
     </row>
@@ -12193,7 +12193,7 @@
         <v>7</v>
       </c>
       <c r="AJ8" s="15">
-        <f>AH8/10000000</f>
+        <f t="shared" si="0"/>
         <v>84802950.024987504</v>
       </c>
     </row>
@@ -12304,7 +12304,7 @@
         <v>8</v>
       </c>
       <c r="AJ9" s="15">
-        <f>AH9/10000000</f>
+        <f t="shared" si="0"/>
         <v>82573399.300349802</v>
       </c>
     </row>
@@ -12415,7 +12415,7 @@
         <v>9</v>
       </c>
       <c r="AJ10" s="15">
-        <f>AH10/10000000</f>
+        <f t="shared" si="0"/>
         <v>60395100.9495252</v>
       </c>
     </row>
@@ -12526,7 +12526,7 @@
         <v>10</v>
       </c>
       <c r="AJ11" s="15">
-        <f>AH11/10000000</f>
+        <f t="shared" si="0"/>
         <v>84102827.586206898</v>
       </c>
     </row>
@@ -12637,7 +12637,7 @@
         <v>11</v>
       </c>
       <c r="AJ12" s="15">
-        <f>AH12/10000000</f>
+        <f t="shared" si="0"/>
         <v>77612382.808595702</v>
       </c>
     </row>
@@ -12748,7 +12748,7 @@
         <v>12</v>
       </c>
       <c r="AJ13" s="15">
-        <f>AH13/10000000</f>
+        <f t="shared" si="0"/>
         <v>93005554.222888604</v>
       </c>
     </row>
@@ -12859,7 +12859,7 @@
         <v>13</v>
       </c>
       <c r="AJ14" s="15">
-        <f>AH14/10000000</f>
+        <f t="shared" si="0"/>
         <v>80115657.671164393</v>
       </c>
     </row>
@@ -12970,7 +12970,7 @@
         <v>14</v>
       </c>
       <c r="AJ15" s="15">
-        <f>AH15/10000000</f>
+        <f t="shared" si="0"/>
         <v>82730631.684157893</v>
       </c>
     </row>
@@ -13081,7 +13081,7 @@
         <v>15</v>
       </c>
       <c r="AJ16" s="15">
-        <f>AH16/10000000</f>
+        <f t="shared" si="0"/>
         <v>87132148.425787106</v>
       </c>
     </row>
@@ -13192,7 +13192,7 @@
         <v>16</v>
       </c>
       <c r="AJ17" s="15">
-        <f>AH17/10000000</f>
+        <f t="shared" si="0"/>
         <v>92721237.381309301</v>
       </c>
     </row>
@@ -13303,7 +13303,7 @@
         <v>17</v>
       </c>
       <c r="AJ18" s="15">
-        <f>AH18/10000000</f>
+        <f t="shared" si="0"/>
         <v>83347961.019490302</v>
       </c>
     </row>
@@ -13414,7 +13414,7 @@
         <v>18</v>
       </c>
       <c r="AJ19" s="15">
-        <f>AH19/10000000</f>
+        <f t="shared" si="0"/>
         <v>75773145.927036494</v>
       </c>
     </row>
@@ -13525,7 +13525,7 @@
         <v>19</v>
       </c>
       <c r="AJ20" s="15">
-        <f>AH20/10000000</f>
+        <f t="shared" si="0"/>
         <v>60645834.582708597</v>
       </c>
     </row>
@@ -13636,7 +13636,7 @@
         <v>20</v>
       </c>
       <c r="AJ21" s="15">
-        <f>AH21/10000000</f>
+        <f t="shared" si="0"/>
         <v>74468665.667166397</v>
       </c>
     </row>
@@ -13747,7 +13747,7 @@
         <v>21</v>
       </c>
       <c r="AJ22" s="15">
-        <f>AH22/10000000</f>
+        <f t="shared" si="0"/>
         <v>74687540.729635194</v>
       </c>
     </row>
@@ -13858,7 +13858,7 @@
         <v>22</v>
       </c>
       <c r="AJ23" s="17">
-        <f>AH23/10000000</f>
+        <f t="shared" si="0"/>
         <v>95115317.841079503</v>
       </c>
     </row>
@@ -13969,7 +13969,7 @@
         <v>23</v>
       </c>
       <c r="AJ24" s="15">
-        <f>AH24/10000000</f>
+        <f t="shared" si="0"/>
         <v>87094041.979010493</v>
       </c>
     </row>
@@ -14080,7 +14080,7 @@
         <v>24</v>
       </c>
       <c r="AJ25" s="15">
-        <f>AH25/10000000</f>
+        <f t="shared" si="0"/>
         <v>77551324.337831095</v>
       </c>
     </row>
@@ -14191,7 +14191,7 @@
         <v>25</v>
       </c>
       <c r="AJ26" s="15">
-        <f>AH26/10000000</f>
+        <f t="shared" si="0"/>
         <v>77637094.452773601</v>
       </c>
     </row>
@@ -14302,7 +14302,7 @@
         <v>26</v>
       </c>
       <c r="AJ27" s="15">
-        <f>AH27/10000000</f>
+        <f t="shared" si="0"/>
         <v>69720528.235882103</v>
       </c>
     </row>
@@ -14413,7 +14413,7 @@
         <v>27</v>
       </c>
       <c r="AJ28" s="15">
-        <f>AH28/10000000</f>
+        <f t="shared" si="0"/>
         <v>57593806.596701697</v>
       </c>
     </row>
@@ -14524,7 +14524,7 @@
         <v>28</v>
       </c>
       <c r="AJ29" s="15">
-        <f>AH29/10000000</f>
+        <f t="shared" si="0"/>
         <v>87369329.835082501</v>
       </c>
     </row>
@@ -14635,7 +14635,7 @@
         <v>29</v>
       </c>
       <c r="AJ30" s="15">
-        <f>AH30/10000000</f>
+        <f t="shared" si="0"/>
         <v>78479511.744127899</v>
       </c>
     </row>
@@ -14746,7 +14746,7 @@
         <v>30</v>
       </c>
       <c r="AJ31" s="15">
-        <f>AH31/10000000</f>
+        <f t="shared" si="0"/>
         <v>73231537.231384307</v>
       </c>
     </row>
@@ -14857,7 +14857,7 @@
         <v>31</v>
       </c>
       <c r="AJ32" s="15">
-        <f>AH32/10000000</f>
+        <f t="shared" si="0"/>
         <v>80249416.791604206</v>
       </c>
     </row>
@@ -14968,7 +14968,7 @@
         <v>32</v>
       </c>
       <c r="AJ33" s="15">
-        <f>AH33/10000000</f>
+        <f t="shared" si="0"/>
         <v>9233889.6051973999</v>
       </c>
     </row>
@@ -15079,7 +15079,7 @@
         <v>33</v>
       </c>
       <c r="AJ34" s="15">
-        <f>AH34/10000000</f>
+        <f t="shared" ref="AJ34:AJ67" si="1">AH34/10000000</f>
         <v>88529678.660669699</v>
       </c>
     </row>
@@ -15190,7 +15190,7 @@
         <v>34</v>
       </c>
       <c r="AJ35" s="15">
-        <f>AH35/10000000</f>
+        <f t="shared" si="1"/>
         <v>8043384.8075962001</v>
       </c>
     </row>
@@ -15301,7 +15301,7 @@
         <v>35</v>
       </c>
       <c r="AJ36" s="15">
-        <f>AH36/10000000</f>
+        <f t="shared" si="1"/>
         <v>85573663.668165907</v>
       </c>
     </row>
@@ -15412,7 +15412,7 @@
         <v>36</v>
       </c>
       <c r="AJ37" s="15">
-        <f>AH37/10000000</f>
+        <f t="shared" si="1"/>
         <v>88764764.617691204</v>
       </c>
     </row>
@@ -15523,7 +15523,7 @@
         <v>37</v>
       </c>
       <c r="AJ38" s="15">
-        <f>AH38/10000000</f>
+        <f t="shared" si="1"/>
         <v>62617805.5972014</v>
       </c>
     </row>
@@ -15634,7 +15634,7 @@
         <v>38</v>
       </c>
       <c r="AJ39" s="15">
-        <f>AH39/10000000</f>
+        <f t="shared" si="1"/>
         <v>68337386.306846604</v>
       </c>
     </row>
@@ -15745,7 +15745,7 @@
         <v>39</v>
       </c>
       <c r="AJ40" s="15">
-        <f>AH40/10000000</f>
+        <f t="shared" si="1"/>
         <v>74210515.742128894</v>
       </c>
     </row>
@@ -15856,7 +15856,7 @@
         <v>40</v>
       </c>
       <c r="AJ41" s="15">
-        <f>AH41/10000000</f>
+        <f t="shared" si="1"/>
         <v>65501602.698650703</v>
       </c>
     </row>
@@ -15967,7 +15967,7 @@
         <v>41</v>
       </c>
       <c r="AJ42" s="15">
-        <f>AH42/10000000</f>
+        <f t="shared" si="1"/>
         <v>80155901.549225405</v>
       </c>
     </row>
@@ -16078,7 +16078,7 @@
         <v>42</v>
       </c>
       <c r="AJ43" s="15">
-        <f>AH43/10000000</f>
+        <f t="shared" si="1"/>
         <v>8458526.7866066992</v>
       </c>
     </row>
@@ -16189,7 +16189,7 @@
         <v>43</v>
       </c>
       <c r="AJ44" s="15">
-        <f>AH44/10000000</f>
+        <f t="shared" si="1"/>
         <v>73818949.525237396</v>
       </c>
     </row>
@@ -16300,7 +16300,7 @@
         <v>44</v>
       </c>
       <c r="AJ45" s="15">
-        <f>AH45/10000000</f>
+        <f t="shared" si="1"/>
         <v>7839397.6011993997</v>
       </c>
     </row>
@@ -16411,7 +16411,7 @@
         <v>45</v>
       </c>
       <c r="AJ46" s="15">
-        <f>AH46/10000000</f>
+        <f t="shared" si="1"/>
         <v>82637774.1129435</v>
       </c>
     </row>
@@ -16522,7 +16522,7 @@
         <v>46</v>
       </c>
       <c r="AJ47" s="15">
-        <f>AH47/10000000</f>
+        <f t="shared" si="1"/>
         <v>8481690.8045977</v>
       </c>
     </row>
@@ -16633,7 +16633,7 @@
         <v>47</v>
       </c>
       <c r="AJ48" s="15">
-        <f>AH48/10000000</f>
+        <f t="shared" si="1"/>
         <v>85753155.422288805</v>
       </c>
     </row>
@@ -16744,7 +16744,7 @@
         <v>48</v>
       </c>
       <c r="AJ49" s="15">
-        <f>AH49/10000000</f>
+        <f t="shared" si="1"/>
         <v>77907264.367816105</v>
       </c>
     </row>
@@ -16855,7 +16855,7 @@
         <v>49</v>
       </c>
       <c r="AJ50" s="15">
-        <f>AH50/10000000</f>
+        <f t="shared" si="1"/>
         <v>84315825.587206393</v>
       </c>
     </row>
@@ -16966,7 +16966,7 @@
         <v>50</v>
       </c>
       <c r="AJ51" s="15">
-        <f>AH51/10000000</f>
+        <f t="shared" si="1"/>
         <v>873067.60119940003</v>
       </c>
     </row>
@@ -17077,7 +17077,7 @@
         <v>51</v>
       </c>
       <c r="AJ52" s="15">
-        <f>AH52/10000000</f>
+        <f t="shared" si="1"/>
         <v>90435189.905047506</v>
       </c>
     </row>
@@ -17188,7 +17188,7 @@
         <v>52</v>
       </c>
       <c r="AJ53" s="15">
-        <f>AH53/10000000</f>
+        <f t="shared" si="1"/>
         <v>81908129.935032502</v>
       </c>
     </row>
@@ -17299,7 +17299,7 @@
         <v>53</v>
       </c>
       <c r="AJ54" s="15">
-        <f>AH54/10000000</f>
+        <f t="shared" si="1"/>
         <v>7905490.4047975997</v>
       </c>
     </row>
@@ -17410,7 +17410,7 @@
         <v>54</v>
       </c>
       <c r="AJ55" s="15">
-        <f>AH55/10000000</f>
+        <f t="shared" si="1"/>
         <v>76058302.348825604</v>
       </c>
     </row>
@@ -17521,7 +17521,7 @@
         <v>55</v>
       </c>
       <c r="AJ56" s="15">
-        <f>AH56/10000000</f>
+        <f t="shared" si="1"/>
         <v>88923945.527236402</v>
       </c>
     </row>
@@ -17632,7 +17632,7 @@
         <v>56</v>
       </c>
       <c r="AJ57" s="15">
-        <f>AH57/10000000</f>
+        <f t="shared" si="1"/>
         <v>62496062.968515702</v>
       </c>
     </row>
@@ -17743,7 +17743,7 @@
         <v>57</v>
       </c>
       <c r="AJ58" s="15">
-        <f>AH58/10000000</f>
+        <f t="shared" si="1"/>
         <v>5777716.3918041</v>
       </c>
     </row>
@@ -17854,7 +17854,7 @@
         <v>58</v>
       </c>
       <c r="AJ59" s="15">
-        <f>AH59/10000000</f>
+        <f t="shared" si="1"/>
         <v>85374420.7896052</v>
       </c>
     </row>
@@ -17965,7 +17965,7 @@
         <v>59</v>
       </c>
       <c r="AJ60" s="15">
-        <f>AH60/10000000</f>
+        <f t="shared" si="1"/>
         <v>65875786.106946498</v>
       </c>
     </row>
@@ -18076,7 +18076,7 @@
         <v>60</v>
       </c>
       <c r="AJ61" s="15">
-        <f>AH61/10000000</f>
+        <f t="shared" si="1"/>
         <v>90987647.6761619</v>
       </c>
     </row>
@@ -18187,7 +18187,7 @@
         <v>61</v>
       </c>
       <c r="AJ62" s="15">
-        <f>AH62/10000000</f>
+        <f t="shared" si="1"/>
         <v>73353531.734132901</v>
       </c>
     </row>
@@ -18298,31 +18298,31 @@
         <v>62</v>
       </c>
       <c r="AJ63" s="15">
-        <f>AH63/10000000</f>
+        <f t="shared" si="1"/>
         <v>86085317.841079503</v>
       </c>
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.35">
       <c r="AJ64" s="15">
-        <f>AH64/10000000</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="36:36" x14ac:dyDescent="0.35">
       <c r="AJ65" s="15">
-        <f>AH65/10000000</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="36:36" x14ac:dyDescent="0.35">
       <c r="AJ66" s="15">
-        <f>AH66/10000000</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="36:36" x14ac:dyDescent="0.35">
       <c r="AJ67" s="15">
-        <f>AH67/10000000</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -18341,7 +18341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
